--- a/return_for_double_down.xlsx
+++ b/return_for_double_down.xlsx
@@ -7,23 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Round limit 3" sheetId="1" r:id="rId1"/>
-    <sheet name="Round limit 4" sheetId="2" r:id="rId2"/>
-    <sheet name="Round limit 5" sheetId="3" r:id="rId3"/>
-    <sheet name="Round limit 6" sheetId="4" r:id="rId4"/>
-    <sheet name="Round limit 7" sheetId="5" r:id="rId5"/>
-    <sheet name="Round limit 8" sheetId="6" r:id="rId6"/>
-    <sheet name="Round limit 9" sheetId="7" r:id="rId7"/>
-    <sheet name="Round limit 10" sheetId="8" r:id="rId8"/>
-    <sheet name="Round limit 11" sheetId="9" r:id="rId9"/>
-    <sheet name="Round limit 12" sheetId="10" r:id="rId10"/>
+    <sheet name="Round limit 4" sheetId="1" r:id="rId1"/>
+    <sheet name="Round limit 5" sheetId="2" r:id="rId2"/>
+    <sheet name="Round limit 6" sheetId="3" r:id="rId3"/>
+    <sheet name="Round limit 7" sheetId="4" r:id="rId4"/>
+    <sheet name="Round limit 8" sheetId="5" r:id="rId5"/>
+    <sheet name="Round limit 9" sheetId="6" r:id="rId6"/>
+    <sheet name="Round limit 10" sheetId="7" r:id="rId7"/>
+    <sheet name="Round limit 11" sheetId="8" r:id="rId8"/>
+    <sheet name="Round limit 12" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="1">
   <si>
     <t xml:space="preserve">                       position level
 take profit</t>
@@ -58,14 +57,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,10 +111,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,405 +449,181 @@
         <v>0.02</v>
       </c>
       <c r="B2" s="3">
-        <v>-0.0332201612689396</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-0.0264885216333452</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.0035149022880466</v>
+        <v>0.0736450400637162</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.00604545649662826</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-0.0185982388712862</v>
       </c>
       <c r="E2" s="4">
-        <v>0.0133846534220167</v>
+        <v>0.0191170300394033</v>
       </c>
       <c r="F2" s="4">
-        <v>0.00377695942112001</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.0233761267944033</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-0.0362455587723999</v>
+        <v>0.0108964910679254</v>
+      </c>
+      <c r="G2" s="5">
+        <v>-0.000279889090989992</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-0.06789848065119</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>0.025</v>
       </c>
-      <c r="B3" s="3">
-        <v>-0.0325188626016297</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-0.0246419475180284</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-0.0138078923487253</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-0.00522512639666246</v>
+      <c r="B3" s="4">
+        <v>0.0473348913625718</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.0180238659728371</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.0295305955896553</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.0215594938936347</v>
       </c>
       <c r="F3" s="4">
-        <v>0.0276210215132639</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.0281598895724416</v>
+        <v>0.00866999132239994</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.00398147572722083</v>
       </c>
       <c r="H3" s="4">
-        <v>0.00172447093279167</v>
+        <v>0.000619773335970762</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>0.03</v>
       </c>
-      <c r="B4" s="3">
-        <v>-0.0296537585303464</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-0.0397878577391955</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.036838182633547</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-0.0107315415016666</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-0.0191559216425867</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-2.65948646700938e-05</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-0.0217957297203499</v>
+      <c r="B4" s="4">
+        <v>0.00425243483429495</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.0253427812226966</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.0236096473295512</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.0352639929542735</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0167386379946742</v>
+      </c>
+      <c r="G4" s="5">
+        <v>-0.0520329623545334</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-0.0576461495893684</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>0.035</v>
       </c>
-      <c r="B5" s="3">
-        <v>-0.0297009533070363</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-0.0369194732409648</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.0327344955418604</v>
-      </c>
-      <c r="E5" s="6">
-        <v>-0.0504767904801684</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.00607805728372692</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-0.0143375998554207</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-0.0224099926984834</v>
+      <c r="B5" s="5">
+        <v>-0.0197883638491027</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.0341980091406387</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.00936019795291105</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0243259606180043</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-0.0515981085747266</v>
+      </c>
+      <c r="G5" s="5">
+        <v>-0.0474930096562443</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-0.0571588451371243</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>0.04</v>
       </c>
-      <c r="B6" s="3">
-        <v>-0.00201846889730765</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-0.0340510887427342</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.0286308084501736</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-0.0469082191454067</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.0118299013552918</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-0.0278077182599659</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.00144973390981673</v>
+      <c r="B6" s="5">
+        <v>-0.0398338120850707</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-0.0734589314401161</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-0.0257817841753343</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.0165280740288668</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-0.0475028592985067</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-0.0291721306447602</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-0.0422374665307467</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>0.045</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.00334092501496533</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.0311827042445036</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.0352012124032361</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.030451645371645</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.0173351260732566</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-0.0235681332055393</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-0.0351883121543167</v>
+      <c r="B7" s="5">
+        <v>-0.0329829306492046</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-0.071154481437901</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.02084289503661</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-0.038239328692974</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.0436542293758866</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-0.0231768485824038</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-0.0370227283459025</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>0.05</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.00814083779254897</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.0283143197462729</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-0.0435073024160725</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.0500810560878567</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.0120844310564214</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-0.0196032412764459</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-0.03121979703725</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0.025</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0.035</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0.045</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.148336423981105</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.100432602040655</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.17026679600225</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.0614506743080768</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.147805192531214</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.140493811106165</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.122689250722968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>0.025</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.212041508028224</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.12159240511209</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.195481798516751</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.0656391815887057</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.172665112150845</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.17163305249756</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.168050331894293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-0.467245636193111</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-0.818743914902232</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.248140841865757</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.234527150867638</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.207820178188275</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.188506975628842</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.188237839122452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>0.035</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-0.532658552960483</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-0.801815790907142</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.254887166088279</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.281080888460042</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.226075099192056</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.219924804900316</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.214883246848027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-0.511943414937085</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-0.778134636548846</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.291299618386605</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.309148552366524</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.258371541933778</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.256717665559577</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.250982731665403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>0.045</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-0.491228276913686</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.750674574832869</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.397786592337893</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.320879024678473</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.3026236731887</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.288807373754523</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.282355573123578</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-0.560291940755493</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.811049322950531</v>
+      <c r="B8" s="5">
+        <v>-0.0261320492133383</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-0.0688500314356859</v>
       </c>
       <c r="D8" s="5">
-        <v>0.684276658773989</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.156546872245208</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.336248525765223</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.320622388824138</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.313453049835087</v>
+        <v>-0.0161284805028202</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-0.0212194404647643</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-0.0395863822500666</v>
+      </c>
+      <c r="G8" s="5">
+        <v>-0.0174562596453806</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-0.032083354907725</v>
       </c>
     </row>
   </sheetData>
@@ -897,26 +672,26 @@
       <c r="A2" s="2">
         <v>0.02</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.0736450400637162</v>
+      <c r="B2" s="4">
+        <v>0.0554821411437321</v>
       </c>
       <c r="C2" s="4">
-        <v>0.00604545649662826</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-0.0185982388712862</v>
+        <v>0.0302077375609332</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.00353557221109084</v>
       </c>
       <c r="E2" s="4">
-        <v>0.0191170300394033</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.0108964910679254</v>
-      </c>
-      <c r="G2" s="3">
-        <v>-0.000279889090989992</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-0.06789848065119</v>
+        <v>0.0614506743080768</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-0.0229915118811946</v>
+      </c>
+      <c r="G2" s="5">
+        <v>-0.0340937590190091</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-0.0620461219522866</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -924,155 +699,155 @@
         <v>0.025</v>
       </c>
       <c r="B3" s="4">
-        <v>0.0473348913625718</v>
+        <v>0.00882263565373152</v>
       </c>
       <c r="C3" s="4">
-        <v>0.0180238659728371</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.0295305955896553</v>
+        <v>0.0434774627704317</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-0.00394003741401359</v>
       </c>
       <c r="E3" s="4">
-        <v>0.0215594938936347</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.00866999132239994</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.00398147572722083</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.000619773335970762</v>
+        <v>0.0656391815887057</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-0.0252180116267201</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-0.0298323942007983</v>
+      </c>
+      <c r="H3" s="5">
+        <v>-0.0437900657212333</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>0.03</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.00425243483429495</v>
+      <c r="B4" s="5">
+        <v>-0.036559611712156</v>
       </c>
       <c r="C4" s="4">
-        <v>0.0253427812226966</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.0236096473295512</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.0352639929542735</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.0167386379946742</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-0.0520329623545334</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-0.0576461495893684</v>
+        <v>0.0599058659309144</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-0.0338995242091246</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-0.000724228696088791</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-0.0171493649544458</v>
+      </c>
+      <c r="G4" s="5">
+        <v>-0.0398363476427008</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-0.0507075834333465</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>0.035</v>
       </c>
-      <c r="B5" s="3">
-        <v>-0.0197883638491027</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.0341980091406387</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.00936019795291105</v>
+      <c r="B5" s="5">
+        <v>-0.0234610178787781</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.0817258897540818</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-0.118385076443155</v>
       </c>
       <c r="E5" s="4">
-        <v>0.0243259606180043</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-0.0515981085747266</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-0.0474930096562443</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-0.0571588451371243</v>
+        <v>0.0315200401698705</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-0.0760322826147813</v>
+      </c>
+      <c r="G5" s="5">
+        <v>-0.0352963949444117</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-0.0511672006480433</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>0.04</v>
       </c>
-      <c r="B6" s="3">
-        <v>-0.0398338120850707</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-0.0734589314401161</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.0257817841753343</v>
+      <c r="B6" s="5">
+        <v>-0.0629430327251169</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.0488710259394708</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-0.113540091359272</v>
       </c>
       <c r="E6" s="4">
-        <v>0.0165280740288668</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-0.0475028592985067</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-0.0291721306447602</v>
-      </c>
-      <c r="H6" s="3">
-        <v>-0.0422374665307467</v>
+        <v>0.0316752766002021</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-0.0682349563720006</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-0.113425731466002</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-0.150033115960057</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>0.045</v>
       </c>
-      <c r="B7" s="3">
-        <v>-0.0329829306492046</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.071154481437901</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.02084289503661</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.038239328692974</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-0.0436542293758866</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-0.0231768485824038</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-0.0370227283459025</v>
+      <c r="B7" s="5">
+        <v>-0.0547659075906864</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.0772279263377673</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.116001690300889</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-0.0640483722199935</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.0679908335083198</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-0.114700367922646</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-0.145765299442153</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>0.05</v>
       </c>
-      <c r="B8" s="3">
-        <v>-0.0261320492133383</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.0688500314356859</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-0.0161284805028202</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.0212194404647643</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-0.0395863822500666</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-0.0174562596453806</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-0.032083354907725</v>
+      <c r="B8" s="5">
+        <v>-0.00150110767562533</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-0.0142574319705964</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-0.0768880860787201</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-0.0512346074847393</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-0.0610327520854391</v>
+      </c>
+      <c r="G8" s="5">
+        <v>-0.109754956148622</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-0.141772847670917</v>
       </c>
     </row>
   </sheetData>
@@ -1122,25 +897,25 @@
         <v>0.02</v>
       </c>
       <c r="B2" s="4">
-        <v>0.0554821411437321</v>
+        <v>0.0211439812446113</v>
       </c>
       <c r="C2" s="4">
-        <v>0.0302077375609332</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.00353557221109084</v>
+        <v>0.100432602040655</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-0.0503754933002361</v>
       </c>
       <c r="E2" s="4">
         <v>0.0614506743080768</v>
       </c>
-      <c r="F2" s="3">
-        <v>-0.0229915118811946</v>
-      </c>
-      <c r="G2" s="3">
-        <v>-0.0340937590190091</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-0.0620461219522866</v>
+      <c r="F2" s="5">
+        <v>-0.0872846873463049</v>
+      </c>
+      <c r="G2" s="5">
+        <v>-0.109280570184202</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-0.14189814027505</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1148,155 +923,155 @@
         <v>0.025</v>
       </c>
       <c r="B3" s="4">
-        <v>0.00882263565373152</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.0434774627704317</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-0.00394003741401359</v>
+        <v>0.0686937800335471</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.12159240511209</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-0.0578511029253405</v>
       </c>
       <c r="E3" s="4">
         <v>0.0656391815887057</v>
       </c>
-      <c r="F3" s="3">
-        <v>-0.0252180116267201</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-0.0298323942007983</v>
-      </c>
-      <c r="H3" s="3">
-        <v>-0.0437900657212333</v>
+      <c r="F3" s="5">
+        <v>-0.090008906209197</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-0.105991451933327</v>
+      </c>
+      <c r="H3" s="5">
+        <v>-0.123666020698166</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>0.03</v>
       </c>
-      <c r="B4" s="3">
-        <v>-0.036559611712156</v>
+      <c r="B4" s="4">
+        <v>0.0152728205644911</v>
       </c>
       <c r="C4" s="4">
-        <v>0.0599058659309144</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.0338995242091246</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-0.000724228696088791</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-0.0171493649544458</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-0.0398363476427008</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-0.0507075834333465</v>
+        <v>0.0129808302625279</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-0.00394081125005508</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-0.0521633496612079</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-0.0824379786542894</v>
+      </c>
+      <c r="G4" s="5">
+        <v>-0.116967651942566</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-0.13060747506445</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>0.035</v>
       </c>
-      <c r="B5" s="3">
-        <v>-0.0234610178787781</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.0817258897540818</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.118385076443155</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.0315200401698705</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-0.0760322826147813</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-0.0352963949444117</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-0.0511672006480433</v>
+      <c r="B5" s="4">
+        <v>0.0475590777732168</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.032733501766861</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-0.157245928592127</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-0.0199190807952487</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-0.245423477441026</v>
+      </c>
+      <c r="G5" s="5">
+        <v>-0.113399945811612</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-0.131091028933316</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>0.04</v>
       </c>
-      <c r="B6" s="3">
-        <v>-0.0629430327251169</v>
+      <c r="B6" s="4">
+        <v>0.069774453671665</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0488710259394708</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.113540091359272</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.0316752766002021</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-0.0682349563720006</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-0.113425731466002</v>
-      </c>
-      <c r="H6" s="6">
-        <v>-0.150033115960057</v>
+        <v>0.0592392036343999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-0.145959560981662</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-0.0197638443649171</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-0.240711173181826</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-0.104457208292872</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-0.122120505710383</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>0.045</v>
       </c>
-      <c r="B7" s="3">
-        <v>-0.0547659075906864</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.0772279263377673</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.116001690300889</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.0640483722199935</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-0.0679908335083198</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-0.114700367922646</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-0.145765299442153</v>
+      <c r="B7" s="4">
+        <v>0.0137138649684531</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-0.0084895226934397</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.134673193371197</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-0.0359457995291184</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.236245488276226</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-0.100217623238446</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-0.11787662584665</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>0.05</v>
       </c>
-      <c r="B8" s="3">
-        <v>-0.00150110767562533</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.0142574319705964</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-0.0768880860787201</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.0512346074847393</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-0.0610327520854391</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-0.109754956148622</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-0.141772847670917</v>
+      <c r="B8" s="5">
+        <v>-0.133925828044363</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-0.164095712554948</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-0.0923072227121012</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-0.188766660174177</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-0.231560586167426</v>
+      </c>
+      <c r="G8" s="5">
+        <v>-0.0962527313093522</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-0.113908110729583</v>
       </c>
     </row>
   </sheetData>
@@ -1346,51 +1121,51 @@
         <v>0.02</v>
       </c>
       <c r="B2" s="4">
-        <v>0.0211439812446113</v>
+        <v>0.148336423981105</v>
       </c>
       <c r="C2" s="4">
         <v>0.100432602040655</v>
       </c>
-      <c r="D2" s="3">
-        <v>-0.0503754933002361</v>
+      <c r="D2" s="5">
+        <v>-0.13275496039221</v>
       </c>
       <c r="E2" s="4">
         <v>0.0614506743080768</v>
       </c>
-      <c r="F2" s="3">
-        <v>-0.0872846873463049</v>
-      </c>
-      <c r="G2" s="3">
-        <v>-0.109280570184202</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-0.14189814027505</v>
+      <c r="F2" s="5">
+        <v>-0.212375086908527</v>
+      </c>
+      <c r="G2" s="5">
+        <v>-0.250578495378608</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-0.287767010498775</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>0.025</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.0686937800335471</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3">
+        <v>0.212041508028224</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.12159240511209</v>
       </c>
-      <c r="D3" s="3">
-        <v>-0.0578511029253405</v>
+      <c r="D3" s="5">
+        <v>-0.140230570017315</v>
       </c>
       <c r="E3" s="4">
         <v>0.0656391815887057</v>
       </c>
-      <c r="F3" s="3">
-        <v>-0.090008906209197</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-0.105991451933327</v>
-      </c>
-      <c r="H3" s="3">
-        <v>-0.123666020698166</v>
+      <c r="F3" s="5">
+        <v>-0.216477468810733</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-0.247749147038567</v>
+      </c>
+      <c r="H3" s="5">
+        <v>-0.271741786493891</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1398,25 +1173,25 @@
         <v>0.03</v>
       </c>
       <c r="B4" s="4">
-        <v>0.0152728205644911</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.0129808302625279</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.00394081125005508</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-0.0521633496612079</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-0.0824379786542894</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-0.116967651942566</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-0.13060747506445</v>
+        <v>0.106961553759798</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-0.07984163382713</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-0.0863202783420293</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-0.167640171297233</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-0.210284704295139</v>
+      </c>
+      <c r="G4" s="5">
+        <v>-0.259185116958638</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-0.279143010771008</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1424,103 +1199,103 @@
         <v>0.035</v>
       </c>
       <c r="B5" s="4">
-        <v>0.0475590777732168</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.032733501766861</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.157245928592127</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-0.0199190807952487</v>
-      </c>
-      <c r="F5" s="6">
-        <v>-0.245423477441026</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-0.113399945811612</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-0.131091028933316</v>
+        <v>0.0403912960547089</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-0.0600889623227968</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-0.101930870530039</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-0.149045764651684</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-0.220992084813193</v>
+      </c>
+      <c r="G5" s="5">
+        <v>-0.256077180738518</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-0.280086334550708</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>0.04</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.069774453671665</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.0592392036343999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.145959560981662</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-0.0197638443649171</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-0.240711173181826</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-0.104457208292872</v>
-      </c>
-      <c r="H6" s="3">
-        <v>-0.122120505710383</v>
+      <c r="B6" s="5">
+        <v>-0.0782204473873479</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-0.033583260455258</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-0.0906445029195733</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-0.15167812542046</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-0.217657943593306</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-0.247594213130612</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-0.271575581238608</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>0.045</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.0137138649684531</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.0084895226934397</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.134673193371197</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.0359457995291184</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-0.236245488276226</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-0.100217623238446</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-0.11787662584665</v>
+      <c r="B7" s="5">
+        <v>-0.0592987798321275</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.0927113747552813</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.0793581353091084</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-0.170647677783769</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.214570421727019</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-0.243814397987018</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-0.267791471285708</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>0.05</v>
       </c>
-      <c r="B8" s="3">
-        <v>-0.133925828044363</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.164095712554948</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-0.0923072227121012</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.188766660174177</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-0.231560586167426</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-0.0962527313093522</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-0.113908110729583</v>
+      <c r="B8" s="5">
+        <v>-0.281529730635544</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-0.181970092114375</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.174219788477687</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-0.454145837630609</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-0.211263682657533</v>
+      </c>
+      <c r="G8" s="5">
+        <v>-0.240309275968758</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-0.264282726079475</v>
       </c>
     </row>
   </sheetData>
@@ -1575,176 +1350,176 @@
       <c r="C2" s="4">
         <v>0.100432602040655</v>
       </c>
-      <c r="D2" s="3">
-        <v>-0.13275496039221</v>
+      <c r="D2" s="4">
+        <v>0.17026679600225</v>
       </c>
       <c r="E2" s="4">
         <v>0.0614506743080768</v>
       </c>
-      <c r="F2" s="3">
-        <v>-0.212375086908527</v>
-      </c>
-      <c r="G2" s="3">
-        <v>-0.250578495378608</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-0.287767010498775</v>
+      <c r="F2" s="5">
+        <v>-0.338609570450927</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.140493811106165</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.122689250722968</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>0.025</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.212041508028224</v>
       </c>
       <c r="C3" s="4">
         <v>0.12159240511209</v>
       </c>
-      <c r="D3" s="3">
-        <v>-0.140230570017315</v>
+      <c r="D3" s="5">
+        <v>-0.321981580037616</v>
       </c>
       <c r="E3" s="4">
         <v>0.0656391815887057</v>
       </c>
-      <c r="F3" s="3">
-        <v>-0.216477468810733</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-0.247749147038567</v>
-      </c>
-      <c r="H3" s="3">
-        <v>-0.271741786493891</v>
+      <c r="F3" s="5">
+        <v>-0.342270573238733</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.17163305249756</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.168050331894293</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>0.03</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.106961553759798</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-0.07984163382713</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.0863202783420293</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-0.167640171297233</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-0.210284704295139</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-0.259185116958638</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-0.279143010771008</v>
+      <c r="B4" s="5">
+        <v>-0.00248481338403937</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-0.203796629846775</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-0.301257627894435</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-0.381489975269834</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-0.335636429608739</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.188506975628842</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.188237839122452</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>0.035</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.0403912960547089</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-0.0600889623227968</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.101930870530039</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-0.149045764651684</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-0.220992084813193</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-0.256077180738518</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-0.280086334550708</v>
+      <c r="B5" s="5">
+        <v>-0.0870791279635293</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-0.184043958342442</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-0.323215698554184</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-0.362895568624285</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-0.345902431012393</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.219924804900316</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.214883246848027</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>0.04</v>
       </c>
-      <c r="B6" s="3">
-        <v>-0.0782204473873479</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-0.033583260455258</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.0906445029195733</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-0.15167812542046</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-0.217657943593306</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-0.247594213130612</v>
-      </c>
-      <c r="H6" s="3">
-        <v>-0.271575581238608</v>
+      <c r="B6" s="4">
+        <v>0.121784609163674</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-0.157538256474903</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-0.31827680941546</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-0.365527929393061</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-0.342126910678106</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.256717665559577</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.250982731665403</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>0.045</v>
       </c>
-      <c r="B7" s="3">
-        <v>-0.0592987798321275</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.0927113747552813</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.0793581353091084</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.170647677783769</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-0.214570421727019</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-0.243814397987018</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-0.267791471285708</v>
+      <c r="B7" s="4">
+        <v>0.167715750199668</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-0.0312436212643641</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.313337920276736</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-0.38449748175637</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.338598009697419</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.288807373754523</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.282355573123578</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>0.05</v>
       </c>
-      <c r="B8" s="3">
-        <v>-0.281529730635544</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.181970092114375</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.174219788477687</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-0.454145837630609</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-0.211263682657533</v>
+      <c r="B8" s="5">
+        <v>-0.230916617404627</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-0.530084250705973</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-0.0661074749616809</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-0.379544281467353</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-0.334849891513533</v>
       </c>
       <c r="G8" s="3">
-        <v>-0.240309275968758</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-0.264282726079475</v>
+        <v>0.320622388824138</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.313453049835087</v>
       </c>
     </row>
   </sheetData>
@@ -1805,8 +1580,8 @@
       <c r="E2" s="4">
         <v>0.0614506743080768</v>
       </c>
-      <c r="F2" s="3">
-        <v>-0.338609570450927</v>
+      <c r="F2" s="4">
+        <v>0.147805192531214</v>
       </c>
       <c r="G2" s="4">
         <v>0.140493811106165</v>
@@ -1825,14 +1600,14 @@
       <c r="C3" s="4">
         <v>0.12159240511209</v>
       </c>
-      <c r="D3" s="3">
-        <v>-0.321981580037616</v>
+      <c r="D3" s="5">
+        <v>-0.485981580037616</v>
       </c>
       <c r="E3" s="4">
         <v>0.0656391815887057</v>
       </c>
-      <c r="F3" s="3">
-        <v>-0.342270573238733</v>
+      <c r="F3" s="4">
+        <v>0.172665112150845</v>
       </c>
       <c r="G3" s="4">
         <v>0.17163305249756</v>
@@ -1845,20 +1620,20 @@
       <c r="A4" s="2">
         <v>0.03</v>
       </c>
-      <c r="B4" s="3">
-        <v>-0.00248481338403937</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-0.203796629846775</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.301257627894435</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-0.381489975269834</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-0.335636429608739</v>
+      <c r="B4" s="5">
+        <v>-0.104484813384039</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-0.380456078660017</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-0.465257627894435</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-0.580248594734834</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.207820178188275</v>
       </c>
       <c r="G4" s="4">
         <v>0.188506975628842</v>
@@ -1871,20 +1646,20 @@
       <c r="A5" s="2">
         <v>0.035</v>
       </c>
-      <c r="B5" s="3">
-        <v>-0.0870791279635293</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-0.184043958342442</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.323215698554184</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-0.362895568624285</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-0.345902431012393</v>
+      <c r="B5" s="5">
+        <v>-0.219079127963529</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-0.362146648624557</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-0.487215698554184</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-0.562113958000118</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.226075099192056</v>
       </c>
       <c r="G5" s="4">
         <v>0.219924804900316</v>
@@ -1897,20 +1672,20 @@
       <c r="A6" s="2">
         <v>0.04</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.121784609163674</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-0.157538256474903</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.31827680941546</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-0.365527929393061</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-0.342126910678106</v>
+      <c r="B6" s="5">
+        <v>-0.0102153908363263</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-0.297805333414155</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-0.48227680941546</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-0.565206088679728</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.258371541933778</v>
       </c>
       <c r="G6" s="4">
         <v>0.256717665559577</v>
@@ -1924,19 +1699,19 @@
         <v>0.045</v>
       </c>
       <c r="B7" s="4">
-        <v>0.167715750199668</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.0312436212643641</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.313337920276736</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.38449748175637</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-0.338598009697419</v>
+        <v>0.0357157501996682</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-0.264054108806342</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.477337920276736</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-0.58463541095387</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.3026236731887</v>
       </c>
       <c r="G7" s="4">
         <v>0.288807373754523</v>
@@ -1949,22 +1724,22 @@
       <c r="A8" s="2">
         <v>0.05</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.093229412770248</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.0951164111118939</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-0.0661074749616809</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-0.89262340335531</v>
+      <c r="B8" s="5">
+        <v>-0.558916617404626</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-0.966095903530392</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-0.230107474961681</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-0.580141980575687</v>
       </c>
       <c r="F8" s="3">
-        <v>-0.334849891513533</v>
-      </c>
-      <c r="G8" s="5">
+        <v>0.336248525765223</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.320622388824138</v>
       </c>
       <c r="H8" s="4">
@@ -2049,8 +1824,8 @@
       <c r="C3" s="4">
         <v>0.12159240511209</v>
       </c>
-      <c r="D3" s="3">
-        <v>-0.485981580037616</v>
+      <c r="D3" s="5">
+        <v>-0.690280429591783</v>
       </c>
       <c r="E3" s="4">
         <v>0.0656391815887057</v>
@@ -2069,17 +1844,17 @@
       <c r="A4" s="2">
         <v>0.03</v>
       </c>
-      <c r="B4" s="3">
-        <v>-0.104484813384039</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-0.380456078660017</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.465257627894435</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-0.580248594734834</v>
+      <c r="B4" s="5">
+        <v>-0.253892810983225</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-0.441362882808317</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-0.670016247359435</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.234527150867638</v>
       </c>
       <c r="F4" s="4">
         <v>0.207820178188275</v>
@@ -2095,17 +1870,17 @@
       <c r="A5" s="2">
         <v>0.035</v>
       </c>
-      <c r="B5" s="3">
-        <v>-0.219079127963529</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-0.362146648624557</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.487215698554184</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-0.562113958000118</v>
+      <c r="B5" s="5">
+        <v>-0.325079127963529</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-0.423537920130907</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-0.692434087930018</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.281080888460042</v>
       </c>
       <c r="F5" s="4">
         <v>0.226075099192056</v>
@@ -2121,17 +1896,17 @@
       <c r="A6" s="2">
         <v>0.04</v>
       </c>
-      <c r="B6" s="3">
-        <v>-0.0102153908363263</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-0.297805333414155</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.48227680941546</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-0.565206088679728</v>
+      <c r="B6" s="5">
+        <v>-0.116215390836326</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-0.398959927090292</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-0.687954968702127</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.309148552366524</v>
       </c>
       <c r="F6" s="4">
         <v>0.258371541933778</v>
@@ -2147,17 +1922,17 @@
       <c r="A7" s="2">
         <v>0.045</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.0357157501996682</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.264054108806342</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.477337920276736</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.58463541095387</v>
+      <c r="B7" s="5">
+        <v>-0.0702842498003318</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-0.370603026691995</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.683475849474236</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.320879024678473</v>
       </c>
       <c r="F7" s="4">
         <v>0.3026236731887</v>
@@ -2173,19 +1948,19 @@
       <c r="A8" s="2">
         <v>0.05</v>
       </c>
-      <c r="B8" s="3">
-        <v>-0.00813191062954346</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.330617149581076</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-0.230107474961681</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-1.09322110246364</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="B8" s="6">
+        <v>-0.848916617404627</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-0.430080936127338</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-0.436705174070014</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.356532249642749</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.336248525765223</v>
       </c>
       <c r="G8" s="4">
@@ -2273,8 +2048,8 @@
       <c r="C3" s="4">
         <v>0.12159240511209</v>
       </c>
-      <c r="D3" s="3">
-        <v>-0.690280429591783</v>
+      <c r="D3" s="5">
+        <v>-0.812510313659325</v>
       </c>
       <c r="E3" s="4">
         <v>0.0656391815887057</v>
@@ -2293,14 +2068,14 @@
       <c r="A4" s="2">
         <v>0.03</v>
       </c>
-      <c r="B4" s="3">
-        <v>-0.253892810983225</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-0.441362882808317</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.670016247359435</v>
+      <c r="B4" s="5">
+        <v>-0.344596258058925</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-0.667362882808317</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-0.792692108240485</v>
       </c>
       <c r="E4" s="4">
         <v>0.234527150867638</v>
@@ -2319,14 +2094,14 @@
       <c r="A5" s="2">
         <v>0.035</v>
       </c>
-      <c r="B5" s="3">
-        <v>-0.325079127963529</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-0.423537920130907</v>
-      </c>
-      <c r="D5" s="6">
-        <v>-0.692434087930018</v>
+      <c r="B5" s="5">
+        <v>-0.439909400928769</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-0.649537920130907</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-0.815555925624576</v>
       </c>
       <c r="E5" s="4">
         <v>0.281080888460042</v>
@@ -2345,14 +2120,14 @@
       <c r="A6" s="2">
         <v>0.04</v>
       </c>
-      <c r="B6" s="3">
-        <v>-0.116215390836326</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-0.398959927090292</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.687954968702127</v>
+      <c r="B6" s="5">
+        <v>-0.418230098329411</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-0.624959927090292</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-0.811522783210193</v>
       </c>
       <c r="E6" s="4">
         <v>0.309148552366524</v>
@@ -2371,14 +2146,14 @@
       <c r="A7" s="2">
         <v>0.045</v>
       </c>
-      <c r="B7" s="3">
-        <v>-0.0702842498003318</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.370603026691995</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.683475849474236</v>
+      <c r="B7" s="5">
+        <v>-0.292052050422377</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-0.596603026691996</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.807489640795811</v>
       </c>
       <c r="E7" s="4">
         <v>0.320879024678473</v>
@@ -2397,19 +2172,19 @@
       <c r="A8" s="2">
         <v>0.05</v>
       </c>
-      <c r="B8" s="3">
-        <v>-0.114131910629544</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.430080936127338</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-0.436705174070014</v>
+      <c r="B8" s="6">
+        <v>-1.22532528476245</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-0.656080936127338</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-0.561164942205098</v>
       </c>
       <c r="E8" s="3">
-        <v>-0.156546872245208</v>
-      </c>
-      <c r="F8" s="5">
+        <v>0.356532249642749</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.336248525765223</v>
       </c>
       <c r="G8" s="4">
@@ -2497,8 +2272,8 @@
       <c r="C3" s="4">
         <v>0.12159240511209</v>
       </c>
-      <c r="D3" s="3">
-        <v>-0.812510313659325</v>
+      <c r="D3" s="4">
+        <v>0.195481798516751</v>
       </c>
       <c r="E3" s="4">
         <v>0.0656391815887057</v>
@@ -2517,14 +2292,14 @@
       <c r="A4" s="2">
         <v>0.03</v>
       </c>
-      <c r="B4" s="3">
-        <v>-0.344596258058925</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-0.667362882808317</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.792692108240485</v>
+      <c r="B4" s="5">
+        <v>-0.467245636193111</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-0.818743914902232</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.248140841865757</v>
       </c>
       <c r="E4" s="4">
         <v>0.234527150867638</v>
@@ -2543,14 +2318,14 @@
       <c r="A5" s="2">
         <v>0.035</v>
       </c>
-      <c r="B5" s="3">
-        <v>-0.439909400928769</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-0.649537920130907</v>
-      </c>
-      <c r="D5" s="6">
-        <v>-0.815555925624576</v>
+      <c r="B5" s="5">
+        <v>-0.532658552960483</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-0.801815790907142</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.254887166088279</v>
       </c>
       <c r="E5" s="4">
         <v>0.281080888460042</v>
@@ -2569,14 +2344,14 @@
       <c r="A6" s="2">
         <v>0.04</v>
       </c>
-      <c r="B6" s="3">
-        <v>-0.418230098329411</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-0.624959927090292</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.811522783210193</v>
+      <c r="B6" s="5">
+        <v>-0.511943414937085</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-0.778134636548846</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.291299618386605</v>
       </c>
       <c r="E6" s="4">
         <v>0.309148552366524</v>
@@ -2595,14 +2370,14 @@
       <c r="A7" s="2">
         <v>0.045</v>
       </c>
-      <c r="B7" s="3">
-        <v>-0.292052050422377</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.596603026691996</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.807489640795811</v>
+      <c r="B7" s="5">
+        <v>-0.491228276913686</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-0.750674574832869</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.397786592337893</v>
       </c>
       <c r="E7" s="4">
         <v>0.320879024678473</v>
@@ -2621,19 +2396,19 @@
       <c r="A8" s="2">
         <v>0.05</v>
       </c>
-      <c r="B8" s="3">
-        <v>-0.348540577987371</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.656080936127338</v>
+      <c r="B8" s="6">
+        <v>-1.68507664753058</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-0.811049322950531</v>
       </c>
       <c r="D8" s="3">
-        <v>-0.561164942205098</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.156546872245208</v>
-      </c>
-      <c r="F8" s="5">
+        <v>0.684276658773989</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.356532249642749</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.336248525765223</v>
       </c>
       <c r="G8" s="4">
